--- a/biology/Botanique/Nierembergia_repens/Nierembergia_repens.xlsx
+++ b/biology/Botanique/Nierembergia_repens/Nierembergia_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia repens est une espèce de plantes de la famille des Solanacées originaire d'Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hipólito Ruiz López &amp; José Antonio Pavón ont décrit cette espèce comme le type du genre en 1799.
-Cette espèce a plusieurs synonymes[1] :
+Cette espèce a plusieurs synonymes :
 Nierembergia rivularis Miers
 Nierembergia spathulata Kunth
 Nierembergia steubelii Hieron. ex Francey</t>
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante vivace tapissante, rampante et drageonnante. Ses tiges rameuses, rampantes et glabres, s'enracinent sur le sol.
 Les feuilles sont oblongues, sessiles ou faiblement pédonculées, d'environ trois centimètres de long.
 Les fleurs, blanches, teintées de rose ou de jaune au cœur, ont de 2,5 à 5 cm de diamètre. Le tube de la corolle est frêle et le calice cylindrique.
 Nierembergia repens bénéficie d'une longue floraison estivale.
-Cette espèce compte 16 chromosomes[2],[3]
+Cette espèce compte 16 chromosomes,
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia repens est originaire d'Amérique du Sud : Colombie, Équateur, Pérou, Argentine, Chili et Uruguay.
 </t>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia repens est maintenant utilisée depuis plus d'un siècle comme plante ornementale en France, moins diffusée cependant que les pétunias.
 De nombreux établissements horticoles la proposent, ainsi que des variétés horticoles comme Nierembergia repens 'Alba'.
